--- a/downloads/revenues/native_american_revenues.xlsx
+++ b/downloads/revenues/native_american_revenues.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isemibnas01\onrr\SHARE\USEITI\DATA &amp; INFO REQUESTS\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Development/doi-extractives-data/downloads/revenues/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A17470A-1D99-F149-97E2-97469D8A2BDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27045" windowHeight="13380"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27040" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Native American Revenues" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Native American Revenues'!$A$1:$G$552</definedName>
-    <definedName name="New_FTS">'Native American Revenues'!$A$1:$G$552</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$G$552</definedName>
+    <definedName name="New_FTS">data!$A$1:$G$552</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -247,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -406,6 +407,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -441,6 +459,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,23 +651,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +690,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -678,7 +713,7 @@
         <v>-169991.42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -698,7 +733,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -721,7 +756,7 @@
         <v>41729.949999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -744,7 +779,7 @@
         <v>44540.07</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -767,7 +802,7 @@
         <v>88621.48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -790,7 +825,7 @@
         <v>261274.7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -810,7 +845,7 @@
         <v>597531.38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -830,7 +865,7 @@
         <v>3950000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -850,7 +885,7 @@
         <v>17654973.350000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -870,7 +905,7 @@
         <v>25014649.800000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -890,7 +925,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -910,7 +945,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -930,7 +965,7 @@
         <v>6174.37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -950,7 +985,7 @@
         <v>238681.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -970,7 +1005,7 @@
         <v>1071092.05</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -993,7 +1028,7 @@
         <v>220.94</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1051,7 @@
         <v>652.01</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1074,7 @@
         <v>5790.49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1097,7 @@
         <v>9418.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1120,7 @@
         <v>19085.18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1108,7 +1143,7 @@
         <v>28388.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1131,7 +1166,7 @@
         <v>75086.100000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1189,7 @@
         <v>189093.61</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1212,7 @@
         <v>967458.2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1200,7 +1235,7 @@
         <v>1476954.22</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1223,7 +1258,7 @@
         <v>2614624.7200000002</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1281,7 @@
         <v>3655009.06</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1269,7 +1304,7 @@
         <v>8102620.4000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1292,7 +1327,7 @@
         <v>19194464.359999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1315,7 +1350,7 @@
         <v>88890658.829999998</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1338,7 +1373,7 @@
         <v>96282107.519999996</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1361,7 +1396,7 @@
         <v>100879190.44</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1419,7 @@
         <v>220462738.72</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1404,7 +1439,7 @@
         <v>-332645</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1427,7 +1462,7 @@
         <v>-136048.60999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1450,7 +1485,7 @@
         <v>-25040.61</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1470,7 +1505,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1490,7 +1525,7 @@
         <v>3254.33</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1513,7 +1548,7 @@
         <v>28774.1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1536,7 +1571,7 @@
         <v>37521.86</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -1559,7 +1594,7 @@
         <v>51015.64</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1579,7 +1614,7 @@
         <v>1215897.6500099001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1602,7 +1637,7 @@
         <v>4134043.3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1622,7 +1657,7 @@
         <v>11137721.4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -1642,7 +1677,7 @@
         <v>27855748.740000099</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -1662,7 +1697,7 @@
         <v>-479471.6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -1682,7 +1717,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1702,7 +1737,7 @@
         <v>1994.37</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -1722,7 +1757,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -1742,7 +1777,7 @@
         <v>201269.2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -1762,7 +1797,7 @@
         <v>999925.96000000101</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -1779,7 +1814,7 @@
         <v>-562.91999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -1802,7 +1837,7 @@
         <v>-1.96</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -1825,7 +1860,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -1848,7 +1883,7 @@
         <v>1907.47</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -1871,7 +1906,7 @@
         <v>2782.5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -1894,7 +1929,7 @@
         <v>3158.24</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -1917,7 +1952,7 @@
         <v>6549</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -1940,7 +1975,7 @@
         <v>22349.53</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -1963,7 +1998,7 @@
         <v>23605</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -1986,7 +2021,7 @@
         <v>70008.460000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -2009,7 +2044,7 @@
         <v>113136.22</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -2032,7 +2067,7 @@
         <v>516710.2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -2055,7 +2090,7 @@
         <v>590977.26999959</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -2078,7 +2113,7 @@
         <v>2002506.32</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -2101,7 +2136,7 @@
         <v>2837189.84</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -2124,7 +2159,7 @@
         <v>3440848.33</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -2147,7 +2182,7 @@
         <v>7805196.2199999997</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -2170,7 +2205,7 @@
         <v>8624021.6400000006</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>37</v>
       </c>
@@ -2193,7 +2228,7 @@
         <v>13401982.859999999</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>37</v>
       </c>
@@ -2216,7 +2251,7 @@
         <v>72614768.019999996</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>37</v>
       </c>
@@ -2239,7 +2274,7 @@
         <v>72872808.400000006</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>37</v>
       </c>
@@ -2262,7 +2297,7 @@
         <v>84687571.299999997</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>37</v>
       </c>
@@ -2285,7 +2320,7 @@
         <v>171302019.28</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>41</v>
       </c>
@@ -2308,7 +2343,7 @@
         <v>-205223.49</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -2328,7 +2363,7 @@
         <v>-116769.65</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -2351,7 +2386,7 @@
         <v>-2937.64</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -2371,7 +2406,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>41</v>
       </c>
@@ -2385,7 +2420,7 @@
         <v>30763.23</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -2408,7 +2443,7 @@
         <v>41919.949999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -2431,7 +2466,7 @@
         <v>54065.14</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -2454,7 +2489,7 @@
         <v>71657.820000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -2474,7 +2509,7 @@
         <v>146032.94999999899</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -2494,7 +2529,7 @@
         <v>1825761.6999959999</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>41</v>
       </c>
@@ -2514,7 +2549,7 @@
         <v>7670538.4199999999</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>41</v>
       </c>
@@ -2534,7 +2569,7 @@
         <v>8379048.1600000001</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>41</v>
       </c>
@@ -2554,7 +2589,7 @@
         <v>-5009.92</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>41</v>
       </c>
@@ -2574,7 +2609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>41</v>
       </c>
@@ -2594,7 +2629,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -2614,7 +2649,7 @@
         <v>4861.68</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -2634,7 +2669,7 @@
         <v>7150</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -2654,7 +2689,7 @@
         <v>20900</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -2674,7 +2709,7 @@
         <v>932433.84</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>41</v>
       </c>
@@ -2697,7 +2732,7 @@
         <v>-16935.919999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -2720,7 +2755,7 @@
         <v>45.45</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>41</v>
       </c>
@@ -2743,7 +2778,7 @@
         <v>1951.71</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>41</v>
       </c>
@@ -2766,7 +2801,7 @@
         <v>8607.39</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>41</v>
       </c>
@@ -2789,7 +2824,7 @@
         <v>16543</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>41</v>
       </c>
@@ -2812,7 +2847,7 @@
         <v>28430.699999699998</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>41</v>
       </c>
@@ -2835,7 +2870,7 @@
         <v>79545.960000000006</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>41</v>
       </c>
@@ -2858,7 +2893,7 @@
         <v>96688.4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>41</v>
       </c>
@@ -2881,7 +2916,7 @@
         <v>142709.46</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>41</v>
       </c>
@@ -2904,7 +2939,7 @@
         <v>717775.24</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -2927,7 +2962,7 @@
         <v>985597.37</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -2950,7 +2985,7 @@
         <v>4707025.34</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>41</v>
       </c>
@@ -2973,7 +3008,7 @@
         <v>4979275.6100000003</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>41</v>
       </c>
@@ -2996,7 +3031,7 @@
         <v>21171996.879999999</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>41</v>
       </c>
@@ -3019,7 +3054,7 @@
         <v>32832571.309999999</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>41</v>
       </c>
@@ -3042,7 +3077,7 @@
         <v>79463027.340000004</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>41</v>
       </c>
@@ -3065,7 +3100,7 @@
         <v>93525158.840000004</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>41</v>
       </c>
@@ -3088,7 +3123,7 @@
         <v>139284576.91999999</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>41</v>
       </c>
@@ -3111,7 +3146,7 @@
         <v>158261159.31999999</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>44</v>
       </c>
@@ -3134,7 +3169,7 @@
         <v>-106238.27</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>44</v>
       </c>
@@ -3157,7 +3192,7 @@
         <v>-8126.32</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -3177,7 +3212,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -3197,7 +3232,7 @@
         <v>17008.36</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -3220,7 +3255,7 @@
         <v>17632.29</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>44</v>
       </c>
@@ -3243,7 +3278,7 @@
         <v>23095.5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>44</v>
       </c>
@@ -3266,7 +3301,7 @@
         <v>31503.73</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>44</v>
       </c>
@@ -3286,7 +3321,7 @@
         <v>141419.75</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>44</v>
       </c>
@@ -3306,7 +3341,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>44</v>
       </c>
@@ -3326,7 +3361,7 @@
         <v>5321959.42</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>44</v>
       </c>
@@ -3346,7 +3381,7 @@
         <v>10973760.390000001</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>44</v>
       </c>
@@ -3366,7 +3401,7 @@
         <v>27.58</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>44</v>
       </c>
@@ -3386,7 +3421,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>44</v>
       </c>
@@ -3406,7 +3441,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>44</v>
       </c>
@@ -3426,7 +3461,7 @@
         <v>8168.74</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>44</v>
       </c>
@@ -3446,7 +3481,7 @@
         <v>29219.919999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>44</v>
       </c>
@@ -3466,7 +3501,7 @@
         <v>182069.74</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>44</v>
       </c>
@@ -3486,7 +3521,7 @@
         <v>942218.84999999905</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>44</v>
       </c>
@@ -3509,7 +3544,7 @@
         <v>-100532.33</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>44</v>
       </c>
@@ -3532,7 +3567,7 @@
         <v>-7851.7000000000098</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>44</v>
       </c>
@@ -3555,7 +3590,7 @@
         <v>-593.41999999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>44</v>
       </c>
@@ -3578,7 +3613,7 @@
         <v>91.22</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>44</v>
       </c>
@@ -3601,7 +3636,7 @@
         <v>7678.16</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>44</v>
       </c>
@@ -3624,7 +3659,7 @@
         <v>44481.21</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>44</v>
       </c>
@@ -3647,7 +3682,7 @@
         <v>86682.41</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>44</v>
       </c>
@@ -3670,7 +3705,7 @@
         <v>113137.28</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>44</v>
       </c>
@@ -3693,7 +3728,7 @@
         <v>471694.16</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>44</v>
       </c>
@@ -3716,7 +3751,7 @@
         <v>474097.6</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>44</v>
       </c>
@@ -3739,7 +3774,7 @@
         <v>1556994.95</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>44</v>
       </c>
@@ -3762,7 +3797,7 @@
         <v>2499363.39</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>44</v>
       </c>
@@ -3785,7 +3820,7 @@
         <v>9159964.4299999997</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>44</v>
       </c>
@@ -3808,7 +3843,7 @@
         <v>15520763.98</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>44</v>
       </c>
@@ -3831,7 +3866,7 @@
         <v>36092331.210000001</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>44</v>
       </c>
@@ -3854,7 +3889,7 @@
         <v>66230801.5</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>44</v>
       </c>
@@ -3877,7 +3912,7 @@
         <v>82826312.730000004</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>44</v>
       </c>
@@ -3900,7 +3935,7 @@
         <v>84575926.409999996</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>44</v>
       </c>
@@ -3923,7 +3958,7 @@
         <v>86433117.129999995</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>46</v>
       </c>
@@ -3946,7 +3981,7 @@
         <v>-138559.72</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>46</v>
       </c>
@@ -3966,7 +4001,7 @@
         <v>-112112.01</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>46</v>
       </c>
@@ -3986,7 +4021,7 @@
         <v>-76790.53</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>46</v>
       </c>
@@ -4009,7 +4044,7 @@
         <v>-6862.87</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>46</v>
       </c>
@@ -4032,7 +4067,7 @@
         <v>-3.91</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>46</v>
       </c>
@@ -4055,7 +4090,7 @@
         <v>74.06</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>46</v>
       </c>
@@ -4075,7 +4110,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>46</v>
       </c>
@@ -4098,7 +4133,7 @@
         <v>32831.42</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>46</v>
       </c>
@@ -4121,7 +4156,7 @@
         <v>48793.65</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>46</v>
       </c>
@@ -4144,7 +4179,7 @@
         <v>53877.93</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>46</v>
       </c>
@@ -4167,7 +4202,7 @@
         <v>71108.38</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>46</v>
       </c>
@@ -4187,7 +4222,7 @@
         <v>1744715.61</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>46</v>
       </c>
@@ -4207,7 +4242,7 @@
         <v>4302760.62</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>46</v>
       </c>
@@ -4227,7 +4262,7 @@
         <v>12010398.050000001</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>46</v>
       </c>
@@ -4247,7 +4282,7 @@
         <v>-25138.32</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>46</v>
       </c>
@@ -4267,7 +4302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>46</v>
       </c>
@@ -4287,7 +4322,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>46</v>
       </c>
@@ -4307,7 +4342,7 @@
         <v>6174.37</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>46</v>
       </c>
@@ -4327,7 +4362,7 @@
         <v>78935.92</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>46</v>
       </c>
@@ -4347,7 +4382,7 @@
         <v>1126942.43</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -4370,7 +4405,7 @@
         <v>-160101.91</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>46</v>
       </c>
@@ -4393,7 +4428,7 @@
         <v>-923.35</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>46</v>
       </c>
@@ -4416,7 +4451,7 @@
         <v>-94.42</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>46</v>
       </c>
@@ -4439,7 +4474,7 @@
         <v>-54.33</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>46</v>
       </c>
@@ -4456,7 +4491,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>46</v>
       </c>
@@ -4479,7 +4514,7 @@
         <v>8074.15</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>46</v>
       </c>
@@ -4502,7 +4537,7 @@
         <v>8780</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>46</v>
       </c>
@@ -4525,7 +4560,7 @@
         <v>35654.14</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>46</v>
       </c>
@@ -4548,7 +4583,7 @@
         <v>41030.33</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>46</v>
       </c>
@@ -4571,7 +4606,7 @@
         <v>47652.4</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>46</v>
       </c>
@@ -4594,7 +4629,7 @@
         <v>80715.66</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>46</v>
       </c>
@@ -4617,7 +4652,7 @@
         <v>390731.68</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>46</v>
       </c>
@@ -4640,7 +4675,7 @@
         <v>1711275.41</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>46</v>
       </c>
@@ -4663,7 +4698,7 @@
         <v>2113726.75</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>46</v>
       </c>
@@ -4686,7 +4721,7 @@
         <v>7092130.4699999997</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>46</v>
       </c>
@@ -4709,7 +4744,7 @@
         <v>15359860</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>46</v>
       </c>
@@ -4732,7 +4767,7 @@
         <v>24610784.760000002</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>46</v>
       </c>
@@ -4755,7 +4790,7 @@
         <v>26412520.890000001</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>46</v>
       </c>
@@ -4778,7 +4813,7 @@
         <v>66779599.590000004</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>46</v>
       </c>
@@ -4801,7 +4836,7 @@
         <v>115677479.44</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>46</v>
       </c>
@@ -4824,7 +4859,7 @@
         <v>131924136.53</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>48</v>
       </c>
@@ -4844,7 +4879,7 @@
         <v>17481.150000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>48</v>
       </c>
@@ -4867,7 +4902,7 @@
         <v>-156742.84</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>48</v>
       </c>
@@ -4890,7 +4925,7 @@
         <v>-6478.98</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>48</v>
       </c>
@@ -4913,7 +4948,7 @@
         <v>-3.18</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>48</v>
       </c>
@@ -4933,7 +4968,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>48</v>
       </c>
@@ -4953,7 +4988,7 @@
         <v>11478.42</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>48</v>
       </c>
@@ -4976,7 +5011,7 @@
         <v>40409.160000000003</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>48</v>
       </c>
@@ -4999,7 +5034,7 @@
         <v>61324.51</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>48</v>
       </c>
@@ -5022,7 +5057,7 @@
         <v>85103.58</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>48</v>
       </c>
@@ -5045,7 +5080,7 @@
         <v>123524.92</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>48</v>
       </c>
@@ -5065,7 +5100,7 @@
         <v>161704</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>48</v>
       </c>
@@ -5085,7 +5120,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>48</v>
       </c>
@@ -5105,7 +5140,7 @@
         <v>6382381.1399999997</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>48</v>
       </c>
@@ -5125,7 +5160,7 @@
         <v>18587532.530000001</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>48</v>
       </c>
@@ -5145,7 +5180,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>48</v>
       </c>
@@ -5165,7 +5200,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>48</v>
       </c>
@@ -5185,7 +5220,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>48</v>
       </c>
@@ -5205,7 +5240,7 @@
         <v>75100</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>48</v>
       </c>
@@ -5225,7 +5260,7 @@
         <v>93248.44</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>48</v>
       </c>
@@ -5245,7 +5280,7 @@
         <v>1551957.42</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>48</v>
       </c>
@@ -5268,7 +5303,7 @@
         <v>44.82</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>48</v>
       </c>
@@ -5291,7 +5326,7 @@
         <v>9180</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>48</v>
       </c>
@@ -5314,7 +5349,7 @@
         <v>10446.77</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>48</v>
       </c>
@@ -5337,7 +5372,7 @@
         <v>39335.919999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>48</v>
       </c>
@@ -5360,7 +5395,7 @@
         <v>45685.01</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>48</v>
       </c>
@@ -5383,7 +5418,7 @@
         <v>97573.71</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>48</v>
       </c>
@@ -5406,7 +5441,7 @@
         <v>395225.3</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>48</v>
       </c>
@@ -5429,7 +5464,7 @@
         <v>448054.02</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>48</v>
       </c>
@@ -5452,7 +5487,7 @@
         <v>1017022.51</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>48</v>
       </c>
@@ -5475,7 +5510,7 @@
         <v>5173651.0199999996</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>48</v>
       </c>
@@ -5498,7 +5533,7 @@
         <v>13748588.84</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>48</v>
       </c>
@@ -5521,7 +5556,7 @@
         <v>17998180.399999999</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>48</v>
       </c>
@@ -5544,7 +5579,7 @@
         <v>20311491.16</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>48</v>
       </c>
@@ -5567,7 +5602,7 @@
         <v>47535831.869999997</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>48</v>
       </c>
@@ -5590,7 +5625,7 @@
         <v>74411884.030000001</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>48</v>
       </c>
@@ -5613,7 +5648,7 @@
         <v>76709588.829999998</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>48</v>
       </c>
@@ -5636,7 +5671,7 @@
         <v>264984173.09999999</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>50</v>
       </c>
@@ -5656,7 +5691,7 @@
         <v>-9340.25000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>50</v>
       </c>
@@ -5679,7 +5714,7 @@
         <v>-7075.68</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>50</v>
       </c>
@@ -5699,7 +5734,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>50</v>
       </c>
@@ -5722,7 +5757,7 @@
         <v>15351.8</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>50</v>
       </c>
@@ -5745,7 +5780,7 @@
         <v>26924.639999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>50</v>
       </c>
@@ -5768,7 +5803,7 @@
         <v>32808.92</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>50</v>
       </c>
@@ -5791,7 +5826,7 @@
         <v>73742.350000000006</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>50</v>
       </c>
@@ -5811,7 +5846,7 @@
         <v>169344.42</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>50</v>
       </c>
@@ -5831,7 +5866,7 @@
         <v>1202240</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>50</v>
       </c>
@@ -5851,7 +5886,7 @@
         <v>3556845.81</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>50</v>
       </c>
@@ -5874,7 +5909,7 @@
         <v>23687082.100000001</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>50</v>
       </c>
@@ -5894,7 +5929,7 @@
         <v>34950016.359999999</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>50</v>
       </c>
@@ -5914,7 +5949,7 @@
         <v>-55694.58</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>50</v>
       </c>
@@ -5934,7 +5969,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>50</v>
       </c>
@@ -5954,7 +5989,7 @@
         <v>528.4</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>50</v>
       </c>
@@ -5974,7 +6009,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>50</v>
       </c>
@@ -5994,7 +6029,7 @@
         <v>8168.74</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>50</v>
       </c>
@@ -6014,7 +6049,7 @@
         <v>1796221.66</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>50</v>
       </c>
@@ -6037,7 +6072,7 @@
         <v>4942.99</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>50</v>
       </c>
@@ -6060,7 +6095,7 @@
         <v>7420</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>50</v>
       </c>
@@ -6083,7 +6118,7 @@
         <v>8160.78</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>50</v>
       </c>
@@ -6106,7 +6141,7 @@
         <v>11088.02</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>50</v>
       </c>
@@ -6129,7 +6164,7 @@
         <v>30728.25</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>50</v>
       </c>
@@ -6152,7 +6187,7 @@
         <v>109790.35</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>50</v>
       </c>
@@ -6175,7 +6210,7 @@
         <v>146364.99</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>50</v>
       </c>
@@ -6198,7 +6233,7 @@
         <v>402207.23</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>50</v>
       </c>
@@ -6221,7 +6256,7 @@
         <v>536725.94999999995</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>50</v>
       </c>
@@ -6244,7 +6279,7 @@
         <v>591527.4</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>50</v>
       </c>
@@ -6267,7 +6302,7 @@
         <v>2353911.0099999998</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>50</v>
       </c>
@@ -6290,7 +6325,7 @@
         <v>8175043.3600000003</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>50</v>
       </c>
@@ -6313,7 +6348,7 @@
         <v>15941290.869999999</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>50</v>
       </c>
@@ -6336,7 +6371,7 @@
         <v>20549877.329999998</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>50</v>
       </c>
@@ -6359,7 +6394,7 @@
         <v>36601335.719999999</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>50</v>
       </c>
@@ -6382,7 +6417,7 @@
         <v>63301345.970000103</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>50</v>
       </c>
@@ -6405,7 +6440,7 @@
         <v>76538509.760000005</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>50</v>
       </c>
@@ -6428,7 +6463,7 @@
         <v>415589235.08999997</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>54</v>
       </c>
@@ -6448,7 +6483,7 @@
         <v>10611353</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>54</v>
       </c>
@@ -6471,7 +6506,7 @@
         <v>-170360.24</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>54</v>
       </c>
@@ -6494,7 +6529,7 @@
         <v>-8979.91</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>54</v>
       </c>
@@ -6517,7 +6552,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>54</v>
       </c>
@@ -6540,7 +6575,7 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>54</v>
       </c>
@@ -6560,7 +6595,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>54</v>
       </c>
@@ -6583,7 +6618,7 @@
         <v>20130.09</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>54</v>
       </c>
@@ -6603,7 +6638,7 @@
         <v>20651.900000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>54</v>
       </c>
@@ -6626,7 +6661,7 @@
         <v>21263.37</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>54</v>
       </c>
@@ -6649,7 +6684,7 @@
         <v>33816.26</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>54</v>
       </c>
@@ -6672,7 +6707,7 @@
         <v>39537.040000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>54</v>
       </c>
@@ -6692,7 +6727,7 @@
         <v>556250.4</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>54</v>
       </c>
@@ -6712,7 +6747,7 @@
         <v>1481367.48</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>54</v>
       </c>
@@ -6732,7 +6767,7 @@
         <v>22036210.109999999</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>54</v>
       </c>
@@ -6752,7 +6787,7 @@
         <v>30714413.989999998</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>54</v>
       </c>
@@ -6772,7 +6807,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>54</v>
       </c>
@@ -6792,7 +6827,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>54</v>
       </c>
@@ -6812,7 +6847,7 @@
         <v>6174.37</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>54</v>
       </c>
@@ -6832,7 +6867,7 @@
         <v>51056.800000000003</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>54</v>
       </c>
@@ -6852,7 +6887,7 @@
         <v>106735.7</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>54</v>
       </c>
@@ -6872,7 +6907,7 @@
         <v>2474841.56</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>54</v>
       </c>
@@ -6895,7 +6930,7 @@
         <v>4690.4799999999996</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>54</v>
       </c>
@@ -6918,7 +6953,7 @@
         <v>6564.4</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>54</v>
       </c>
@@ -6941,7 +6976,7 @@
         <v>7556</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>54</v>
       </c>
@@ -6964,7 +6999,7 @@
         <v>8690.4</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>54</v>
       </c>
@@ -6987,7 +7022,7 @@
         <v>45265.05</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>54</v>
       </c>
@@ -7010,7 +7045,7 @@
         <v>45990.03</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>54</v>
       </c>
@@ -7033,7 +7068,7 @@
         <v>313232.36</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>54</v>
       </c>
@@ -7056,7 +7091,7 @@
         <v>467778.55</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>54</v>
       </c>
@@ -7079,7 +7114,7 @@
         <v>685517.24</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>54</v>
       </c>
@@ -7102,7 +7137,7 @@
         <v>996978.62</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>54</v>
       </c>
@@ -7125,7 +7160,7 @@
         <v>1525851.93</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>54</v>
       </c>
@@ -7148,7 +7183,7 @@
         <v>6996494.0099999998</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>54</v>
       </c>
@@ -7171,7 +7206,7 @@
         <v>12634562.58</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>54</v>
       </c>
@@ -7194,7 +7229,7 @@
         <v>18378753.649999999</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>54</v>
       </c>
@@ -7217,7 +7252,7 @@
         <v>55156971.020000003</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>54</v>
       </c>
@@ -7240,7 +7275,7 @@
         <v>56740400.880000003</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>54</v>
       </c>
@@ -7263,7 +7298,7 @@
         <v>78174119.920000002</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>54</v>
       </c>
@@ -7286,7 +7321,7 @@
         <v>677075371.60000002</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>55</v>
       </c>
@@ -7306,7 +7341,7 @@
         <v>19050000</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>55</v>
       </c>
@@ -7329,7 +7364,7 @@
         <v>-125642.85</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>55</v>
       </c>
@@ -7352,7 +7387,7 @@
         <v>-35614.5</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>55</v>
       </c>
@@ -7375,7 +7410,7 @@
         <v>-8120.12</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>55</v>
       </c>
@@ -7398,7 +7433,7 @@
         <v>-6206.9</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>55</v>
       </c>
@@ -7421,7 +7456,7 @@
         <v>85.97</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>55</v>
       </c>
@@ -7441,7 +7476,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>55</v>
       </c>
@@ -7461,7 +7496,7 @@
         <v>3259.58000000006</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>55</v>
       </c>
@@ -7484,7 +7519,7 @@
         <v>16587.259999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>55</v>
       </c>
@@ -7507,7 +7542,7 @@
         <v>17367.009999999998</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>55</v>
       </c>
@@ -7530,7 +7565,7 @@
         <v>22545.45</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>55</v>
       </c>
@@ -7553,7 +7588,7 @@
         <v>26786.81</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>55</v>
       </c>
@@ -7573,7 +7608,7 @@
         <v>278957.7</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>55</v>
       </c>
@@ -7593,7 +7628,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>55</v>
       </c>
@@ -7613,7 +7648,7 @@
         <v>8484325.5700000003</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>55</v>
       </c>
@@ -7633,7 +7668,7 @@
         <v>11634073.880000001</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>55</v>
       </c>
@@ -7653,7 +7688,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>55</v>
       </c>
@@ -7673,7 +7708,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>55</v>
       </c>
@@ -7693,7 +7728,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>55</v>
       </c>
@@ -7713,7 +7748,7 @@
         <v>26328.400000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>55</v>
       </c>
@@ -7733,7 +7768,7 @@
         <v>106325.42</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>55</v>
       </c>
@@ -7753,7 +7788,7 @@
         <v>4072878.21999999</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>55</v>
       </c>
@@ -7776,7 +7811,7 @@
         <v>169.86</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>55</v>
       </c>
@@ -7799,7 +7834,7 @@
         <v>4966.6400000000003</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>55</v>
       </c>
@@ -7822,7 +7857,7 @@
         <v>6959.28</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>55</v>
       </c>
@@ -7845,7 +7880,7 @@
         <v>8646</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>55</v>
       </c>
@@ -7868,7 +7903,7 @@
         <v>32092.12</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>55</v>
       </c>
@@ -7891,7 +7926,7 @@
         <v>38072.8100000001</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>55</v>
       </c>
@@ -7914,7 +7949,7 @@
         <v>40540.35</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>55</v>
       </c>
@@ -7937,7 +7972,7 @@
         <v>78443.12</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>55</v>
       </c>
@@ -7960,7 +7995,7 @@
         <v>139208</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>55</v>
       </c>
@@ -7983,7 +8018,7 @@
         <v>524801.07999999996</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>55</v>
       </c>
@@ -8006,7 +8041,7 @@
         <v>660855.35</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>55</v>
       </c>
@@ -8029,7 +8064,7 @@
         <v>894606.17</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>55</v>
       </c>
@@ -8052,7 +8087,7 @@
         <v>1308904.79</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>55</v>
       </c>
@@ -8075,7 +8110,7 @@
         <v>2079786.6</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>55</v>
       </c>
@@ -8098,7 +8133,7 @@
         <v>5094661.63</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>55</v>
       </c>
@@ -8121,7 +8156,7 @@
         <v>9485837.5</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>55</v>
       </c>
@@ -8144,7 +8179,7 @@
         <v>10908964.33</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>55</v>
       </c>
@@ -8167,7 +8202,7 @@
         <v>18002610.710000001</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>55</v>
       </c>
@@ -8190,7 +8225,7 @@
         <v>30875036.43</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>55</v>
       </c>
@@ -8213,7 +8248,7 @@
         <v>63463463.090000004</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>55</v>
       </c>
@@ -8236,7 +8271,7 @@
         <v>68099334.730000004</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>55</v>
       </c>
@@ -8259,7 +8294,7 @@
         <v>69916904.409999996</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>55</v>
       </c>
@@ -8282,7 +8317,7 @@
         <v>116112361.94</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>55</v>
       </c>
@@ -8305,7 +8340,7 @@
         <v>699198907.38999903</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>61</v>
       </c>
@@ -8325,7 +8360,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>61</v>
       </c>
@@ -8345,7 +8380,7 @@
         <v>-10569160.289999999</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>61</v>
       </c>
@@ -8365,7 +8400,7 @@
         <v>-9542500.7599999998</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>61</v>
       </c>
@@ -8388,7 +8423,7 @@
         <v>-249513.84</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>61</v>
       </c>
@@ -8411,7 +8446,7 @@
         <v>-80074.38</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>61</v>
       </c>
@@ -8434,7 +8469,7 @@
         <v>-15954.04</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>61</v>
       </c>
@@ -8454,7 +8489,7 @@
         <v>-10622.07</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>61</v>
       </c>
@@ -8477,7 +8512,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>61</v>
       </c>
@@ -8500,7 +8535,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>61</v>
       </c>
@@ -8523,7 +8558,7 @@
         <v>410.22</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>61</v>
       </c>
@@ -8543,7 +8578,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>61</v>
       </c>
@@ -8566,7 +8601,7 @@
         <v>5515.94</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>61</v>
       </c>
@@ -8589,7 +8624,7 @@
         <v>8894.69</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>61</v>
       </c>
@@ -8612,7 +8647,7 @@
         <v>11177.1</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>61</v>
       </c>
@@ -8632,7 +8667,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>61</v>
       </c>
@@ -8655,7 +8690,7 @@
         <v>417285.03</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>61</v>
       </c>
@@ -8675,7 +8710,7 @@
         <v>504584.25</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>61</v>
       </c>
@@ -8695,7 +8730,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>61</v>
       </c>
@@ -8715,7 +8750,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>61</v>
       </c>
@@ -8735,7 +8770,7 @@
         <v>528.4</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>61</v>
       </c>
@@ -8755,7 +8790,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>61</v>
       </c>
@@ -8775,7 +8810,7 @@
         <v>6174.37</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>61</v>
       </c>
@@ -8795,7 +8830,7 @@
         <v>106325.42</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>61</v>
       </c>
@@ -8815,7 +8850,7 @@
         <v>4140464.34</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>61</v>
       </c>
@@ -8838,7 +8873,7 @@
         <v>-75738201.469999999</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>61</v>
       </c>
@@ -8861,7 +8896,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>61</v>
       </c>
@@ -8884,7 +8919,7 @@
         <v>4258.37</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>61</v>
       </c>
@@ -8907,7 +8942,7 @@
         <v>6256.8</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>61</v>
       </c>
@@ -8930,7 +8965,7 @@
         <v>6314.81</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>61</v>
       </c>
@@ -8953,7 +8988,7 @@
         <v>9964.16</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>61</v>
       </c>
@@ -8976,7 +9011,7 @@
         <v>12328.57</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>61</v>
       </c>
@@ -8999,7 +9034,7 @@
         <v>23324.95</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>61</v>
       </c>
@@ -9022,7 +9057,7 @@
         <v>121206.57</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>61</v>
       </c>
@@ -9045,7 +9080,7 @@
         <v>192337.99</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>61</v>
       </c>
@@ -9068,7 +9103,7 @@
         <v>473872.36</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>61</v>
       </c>
@@ -9091,7 +9126,7 @@
         <v>500008.98</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>61</v>
       </c>
@@ -9114,7 +9149,7 @@
         <v>604406</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>61</v>
       </c>
@@ -9137,7 +9172,7 @@
         <v>723762.31</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>61</v>
       </c>
@@ -9160,7 +9195,7 @@
         <v>1252163.3899999999</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>61</v>
       </c>
@@ -9183,7 +9218,7 @@
         <v>1792594.19</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>61</v>
       </c>
@@ -9206,7 +9241,7 @@
         <v>5217754.41</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>61</v>
       </c>
@@ -9229,7 +9264,7 @@
         <v>8120011.2999999896</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>61</v>
       </c>
@@ -9252,7 +9287,7 @@
         <v>14974922.800000001</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>61</v>
       </c>
@@ -9275,7 +9310,7 @@
         <v>19474645.620000001</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>61</v>
       </c>
@@ -9298,7 +9333,7 @@
         <v>23184598.16</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>61</v>
       </c>
@@ -9321,7 +9356,7 @@
         <v>43753212.340000004</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>61</v>
       </c>
@@ -9344,7 +9379,7 @@
         <v>47974628.350000001</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>61</v>
       </c>
@@ -9367,7 +9402,7 @@
         <v>66277947.829999998</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>61</v>
       </c>
@@ -9390,7 +9425,7 @@
         <v>74385900.340000004</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>61</v>
       </c>
@@ -9413,7 +9448,7 @@
         <v>596505443.47000003</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>64</v>
       </c>
@@ -9433,7 +9468,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>64</v>
       </c>
@@ -9456,7 +9491,7 @@
         <v>-45063.43</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>64</v>
       </c>
@@ -9479,7 +9514,7 @@
         <v>-18809.009999999998</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>64</v>
       </c>
@@ -9502,7 +9537,7 @@
         <v>-2771.38</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>64</v>
       </c>
@@ -9525,7 +9560,7 @@
         <v>-2411.79</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>64</v>
       </c>
@@ -9548,7 +9583,7 @@
         <v>-32.380000000000003</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>64</v>
       </c>
@@ -9571,7 +9606,7 @@
         <v>-6.74</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>64</v>
       </c>
@@ -9594,7 +9629,7 @@
         <v>161.74</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>64</v>
       </c>
@@ -9617,7 +9652,7 @@
         <v>746.95</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>64</v>
       </c>
@@ -9637,7 +9672,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>64</v>
       </c>
@@ -9657,7 +9692,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>64</v>
       </c>
@@ -9680,7 +9715,7 @@
         <v>16195.78</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>64</v>
       </c>
@@ -9700,7 +9735,7 @@
         <v>47694.47</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>64</v>
       </c>
@@ -9720,7 +9755,7 @@
         <v>837077.3</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>64</v>
       </c>
@@ -9740,7 +9775,7 @@
         <v>1345801.32999996</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>64</v>
       </c>
@@ -9760,7 +9795,7 @@
         <v>2059034.36</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>64</v>
       </c>
@@ -9780,7 +9815,7 @@
         <v>5358588.1500000004</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>64</v>
       </c>
@@ -9800,7 +9835,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>64</v>
       </c>
@@ -9820,7 +9855,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>64</v>
       </c>
@@ -9840,7 +9875,7 @@
         <v>1281.52</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>64</v>
       </c>
@@ -9860,7 +9895,7 @@
         <v>10163.11</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>64</v>
       </c>
@@ -9880,7 +9915,7 @@
         <v>165380.94</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>64</v>
       </c>
@@ -9900,7 +9935,7 @@
         <v>547328.4</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>64</v>
       </c>
@@ -9920,7 +9955,7 @@
         <v>2710020.87</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>64</v>
       </c>
@@ -9943,7 +9978,7 @@
         <v>-129603804.79000001</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>64</v>
       </c>
@@ -9966,7 +10001,7 @@
         <v>-682964.64000000095</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>64</v>
       </c>
@@ -9989,7 +10024,7 @@
         <v>-336124.56</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>64</v>
       </c>
@@ -10012,7 +10047,7 @@
         <v>-298860.09000000003</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>64</v>
       </c>
@@ -10035,7 +10070,7 @@
         <v>146.47</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>64</v>
       </c>
@@ -10058,7 +10093,7 @@
         <v>684.91</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>64</v>
       </c>
@@ -10081,7 +10116,7 @@
         <v>2887.13</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>64</v>
       </c>
@@ -10104,7 +10139,7 @@
         <v>4313.2700000000004</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>64</v>
       </c>
@@ -10127,7 +10162,7 @@
         <v>4852.13</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>64</v>
       </c>
@@ -10150,7 +10185,7 @@
         <v>5702.4</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>64</v>
       </c>
@@ -10173,7 +10208,7 @@
         <v>15759.6</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>64</v>
       </c>
@@ -10193,7 +10228,7 @@
         <v>68510</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>64</v>
       </c>
@@ -10216,7 +10251,7 @@
         <v>151488.46</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>64</v>
       </c>
@@ -10239,7 +10274,7 @@
         <v>215450.34</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>64</v>
       </c>
@@ -10262,7 +10297,7 @@
         <v>302596.87</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>64</v>
       </c>
@@ -10285,7 +10320,7 @@
         <v>569040.01</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>64</v>
       </c>
@@ -10308,7 +10343,7 @@
         <v>896146.22</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>64</v>
       </c>
@@ -10331,7 +10366,7 @@
         <v>2134616.6</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>64</v>
       </c>
@@ -10354,7 +10389,7 @@
         <v>3593418.73</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>64</v>
       </c>
@@ -10377,7 +10412,7 @@
         <v>4659290.8600000003</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>64</v>
       </c>
@@ -10400,7 +10435,7 @@
         <v>5573721.71</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>64</v>
       </c>
@@ -10423,7 +10458,7 @@
         <v>11228614.23</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>64</v>
       </c>
@@ -10446,7 +10481,7 @@
         <v>17185610.350000001</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>64</v>
       </c>
@@ -10469,7 +10504,7 @@
         <v>26613402.969999999</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>64</v>
       </c>
@@ -10492,7 +10527,7 @@
         <v>30962279.219999999</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>64</v>
       </c>
@@ -10515,7 +10550,7 @@
         <v>58492018.869999997</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>64</v>
       </c>
@@ -10538,7 +10573,7 @@
         <v>64549046.539999999</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>64</v>
       </c>
@@ -10561,7 +10596,7 @@
         <v>440350988.01999998</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>68</v>
       </c>
@@ -10581,7 +10616,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>68</v>
       </c>
@@ -10601,7 +10636,7 @@
         <v>-638919.92000000004</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>68</v>
       </c>
@@ -10621,7 +10656,7 @@
         <v>-54257.57</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>68</v>
       </c>
@@ -10644,7 +10679,7 @@
         <v>-44100.32</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>68</v>
       </c>
@@ -10667,7 +10702,7 @@
         <v>-32923.06</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>68</v>
       </c>
@@ -10690,7 +10725,7 @@
         <v>-17318.63</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>68</v>
       </c>
@@ -10713,7 +10748,7 @@
         <v>-7123.03</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>68</v>
       </c>
@@ -10736,7 +10771,7 @@
         <v>-4908.8100000000004</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>68</v>
       </c>
@@ -10759,7 +10794,7 @@
         <v>-4529.2700000000004</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>68</v>
       </c>
@@ -10782,7 +10817,7 @@
         <v>-437.16</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>68</v>
       </c>
@@ -10805,7 +10840,7 @@
         <v>-4.29</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>68</v>
       </c>
@@ -10828,7 +10863,7 @@
         <v>-2.73</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>68</v>
       </c>
@@ -10848,7 +10883,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>68</v>
       </c>
@@ -10868,7 +10903,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>68</v>
       </c>
@@ -10891,7 +10926,7 @@
         <v>20113.759999999998</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>68</v>
       </c>
@@ -10911,7 +10946,7 @@
         <v>534208.64</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>68</v>
       </c>
@@ -10931,7 +10966,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>68</v>
       </c>
@@ -10951,7 +10986,7 @@
         <v>3609463.36</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>68</v>
       </c>
@@ -10971,7 +11006,7 @@
         <v>18730648.219999898</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>68</v>
       </c>
@@ -10991,7 +11026,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>68</v>
       </c>
@@ -11011,7 +11046,7 @@
         <v>961.12</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>68</v>
       </c>
@@ -11031,7 +11066,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>68</v>
       </c>
@@ -11051,7 +11086,7 @@
         <v>1281.52</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>68</v>
       </c>
@@ -11071,7 +11106,7 @@
         <v>109111.87</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>68</v>
       </c>
@@ -11091,7 +11126,7 @@
         <v>313557.82000200002</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>68</v>
       </c>
@@ -11111,7 +11146,7 @@
         <v>2663501.65</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>68</v>
       </c>
@@ -11134,7 +11169,7 @@
         <v>-107229022.54000001</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>68</v>
       </c>
@@ -11151,7 +11186,7 @@
         <v>-1214.9100000000001</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>68</v>
       </c>
@@ -11174,7 +11209,7 @@
         <v>7632.23</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>68</v>
       </c>
@@ -11197,7 +11232,7 @@
         <v>25088.61</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>68</v>
       </c>
@@ -11220,7 +11255,7 @@
         <v>37768.31</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>68</v>
       </c>
@@ -11243,7 +11278,7 @@
         <v>57134.52</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>68</v>
       </c>
@@ -11263,7 +11298,7 @@
         <v>104900</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>68</v>
       </c>
@@ -11286,7 +11321,7 @@
         <v>222696.57</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>68</v>
       </c>
@@ -11309,7 +11344,7 @@
         <v>285884.59000000003</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>68</v>
       </c>
@@ -11332,7 +11367,7 @@
         <v>291744.12</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>68</v>
       </c>
@@ -11355,7 +11390,7 @@
         <v>544124.93999999994</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>68</v>
       </c>
@@ -11378,7 +11413,7 @@
         <v>939437.84</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>68</v>
       </c>
@@ -11401,7 +11436,7 @@
         <v>1068184.3500000001</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>68</v>
       </c>
@@ -11424,7 +11459,7 @@
         <v>3441021.91</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>68</v>
       </c>
@@ -11447,7 +11482,7 @@
         <v>7781989.0300000003</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>68</v>
       </c>
@@ -11470,7 +11505,7 @@
         <v>9800084.6500000004</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>68</v>
       </c>
@@ -11493,7 +11528,7 @@
         <v>11331220.33</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>68</v>
       </c>
@@ -11516,7 +11551,7 @@
         <v>14209111.67</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>68</v>
       </c>
@@ -11539,7 +11574,7 @@
         <v>19471483.68</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>68</v>
       </c>
@@ -11562,7 +11597,7 @@
         <v>22921677.100000001</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>68</v>
       </c>
@@ -11585,7 +11620,7 @@
         <v>34384070.469999999</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>68</v>
       </c>
@@ -11608,7 +11643,7 @@
         <v>64386245.109999999</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>68</v>
       </c>
@@ -11631,7 +11666,7 @@
         <v>67446191.450000003</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>68</v>
       </c>
@@ -11654,7 +11689,7 @@
         <v>489034490.97000003</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>70</v>
       </c>
@@ -11674,7 +11709,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>70</v>
       </c>
@@ -11697,7 +11732,7 @@
         <v>-60895.94</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>70</v>
       </c>
@@ -11720,7 +11755,7 @@
         <v>-36934.42</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>70</v>
       </c>
@@ -11743,7 +11778,7 @@
         <v>-3504.35</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>70</v>
       </c>
@@ -11763,7 +11798,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>70</v>
       </c>
@@ -11786,7 +11821,7 @@
         <v>-251.71</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>70</v>
       </c>
@@ -11809,7 +11844,7 @@
         <v>-200.7</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>70</v>
       </c>
@@ -11832,7 +11867,7 @@
         <v>-31.37</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>70</v>
       </c>
@@ -11855,7 +11890,7 @@
         <v>-3.07</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>70</v>
       </c>
@@ -11878,7 +11913,7 @@
         <v>-2.87</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>70</v>
       </c>
@@ -11898,7 +11933,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>70</v>
       </c>
@@ -11921,7 +11956,7 @@
         <v>23422.7</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>70</v>
       </c>
@@ -11941,7 +11976,7 @@
         <v>23920.799999999999</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>70</v>
       </c>
@@ -11961,7 +11996,7 @@
         <v>54325.32</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>70</v>
       </c>
@@ -11981,7 +12016,7 @@
         <v>313738.64</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>70</v>
       </c>
@@ -12001,7 +12036,7 @@
         <v>1725000</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>70</v>
       </c>
@@ -12021,7 +12056,7 @@
         <v>3904144.8</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>70</v>
       </c>
@@ -12041,7 +12076,7 @@
         <v>15077866.3800001</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>70</v>
       </c>
@@ -12061,7 +12096,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>70</v>
       </c>
@@ -12081,7 +12116,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>70</v>
       </c>
@@ -12101,7 +12136,7 @@
         <v>1281.52</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>70</v>
       </c>
@@ -12121,7 +12156,7 @@
         <v>67404.479999999996</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>70</v>
       </c>
@@ -12141,7 +12176,7 @@
         <v>94365.95</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>70</v>
       </c>
@@ -12161,7 +12196,7 @@
         <v>324958.92000400001</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>70</v>
       </c>
@@ -12181,7 +12216,7 @@
         <v>2880240.49</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>70</v>
       </c>
@@ -12204,7 +12239,7 @@
         <v>-38146319.219999999</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>70</v>
       </c>
@@ -12227,7 +12262,7 @@
         <v>-3972113.39</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>70</v>
       </c>
@@ -12250,7 +12285,7 @@
         <v>-16693.490000000002</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>70</v>
       </c>
@@ -12273,7 +12308,7 @@
         <v>6556.93</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>70</v>
       </c>
@@ -12296,7 +12331,7 @@
         <v>45754.85</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>70</v>
       </c>
@@ -12319,7 +12354,7 @@
         <v>79031.09</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>70</v>
       </c>
@@ -12339,7 +12374,7 @@
         <v>126405</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>70</v>
       </c>
@@ -12362,7 +12397,7 @@
         <v>182204.55</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>70</v>
       </c>
@@ -12385,7 +12420,7 @@
         <v>270355.42</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>70</v>
       </c>
@@ -12408,7 +12443,7 @@
         <v>307171.09000000003</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>70</v>
       </c>
@@ -12431,7 +12466,7 @@
         <v>503698.12</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>70</v>
       </c>
@@ -12454,7 +12489,7 @@
         <v>661645.39</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>70</v>
       </c>
@@ -12477,7 +12512,7 @@
         <v>979734.99</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>70</v>
       </c>
@@ -12500,7 +12535,7 @@
         <v>1737498.03</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>70</v>
       </c>
@@ -12523,7 +12558,7 @@
         <v>2081481.05</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>70</v>
       </c>
@@ -12546,7 +12581,7 @@
         <v>8716800.3900000006</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>70</v>
       </c>
@@ -12569,7 +12604,7 @@
         <v>23557824.079999998</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>70</v>
       </c>
@@ -12592,7 +12627,7 @@
         <v>24601538.039999999</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>70</v>
       </c>
@@ -12615,7 +12650,7 @@
         <v>27044493.390000001</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>70</v>
       </c>
@@ -12638,7 +12673,7 @@
         <v>28207879.75</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>70</v>
       </c>
@@ -12661,7 +12696,7 @@
         <v>28896075.989999998</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>70</v>
       </c>
@@ -12684,7 +12719,7 @@
         <v>32296936.48</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>70</v>
       </c>
@@ -12707,7 +12742,7 @@
         <v>32596067.34</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>70</v>
       </c>
@@ -12730,7 +12765,7 @@
         <v>51723420.579999998</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>70</v>
       </c>
@@ -12753,7 +12788,7 @@
         <v>75035894.480000004</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>70</v>
       </c>
@@ -12777,8 +12812,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G552"/>
-  <sortState ref="A2:G552">
+  <autoFilter ref="A1:G552" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G552">
     <sortCondition ref="A2:A552"/>
     <sortCondition ref="C2:C552"/>
   </sortState>
